--- a/RUDN/Importance/Varible_f_class_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Middle Africa.xlsx
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3326115.235186931</v>
+        <v>3326115.235186932</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1467178.05157986</v>
+        <v>1467178.051592196</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>41732.82105779201</v>
+        <v>41732.82105780041</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>28347.63518758399</v>
+        <v>28347.63518757642</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>19181.65936783983</v>
+        <v>19181.65936784186</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>492.6510384020367</v>
+        <v>492.6510384020323</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>355.8108712255271</v>
+        <v>355.8108712255286</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>340.9066591639482</v>
+        <v>340.906659163947</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>285.8537881397424</v>
+        <v>285.8537881397467</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>254.2732631114414</v>
+        <v>254.2732631114394</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>254.2732631114411</v>
+        <v>254.2732631114369</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>248.4994788229711</v>
+        <v>248.4994788229741</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>241.2186187231086</v>
+        <v>241.2186187231074</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>241.2186187231086</v>
+        <v>241.2186187231074</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>220.354514356461</v>
+        <v>220.3545143564606</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>209.4190440061645</v>
+        <v>209.4190440061628</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>163.5771422144701</v>
+        <v>163.5771422144632</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>142.6198854512089</v>
+        <v>142.6198854512094</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>136.326214228274</v>
+        <v>136.3262142282753</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>135.2748742568452</v>
+        <v>135.2748742568463</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>131.3943601247084</v>
+        <v>131.3943601247134</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>128.8926369850724</v>
+        <v>128.8926369850723</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>124.9343925424811</v>
+        <v>124.9343925424709</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>123.1149542788701</v>
+        <v>123.1149542788686</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>123.1036105571749</v>
+        <v>123.1036105571732</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>112.2669241513687</v>
+        <v>112.2669241513693</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>106.9968860806367</v>
+        <v>106.9968860806366</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>106.9595416773112</v>
+        <v>106.9595416773114</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>105.8439837539109</v>
+        <v>105.8439837539085</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>94.92522779587524</v>
+        <v>94.92522779587667</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>94.39324135729028</v>
+        <v>94.39324135729005</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>93.65074213610451</v>
+        <v>93.65074213610359</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>91.69128966801333</v>
+        <v>91.69128966801651</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>90.26518845617431</v>
+        <v>90.26518845617291</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>84.27815773935217</v>
+        <v>84.27815773935221</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>82.51220504170861</v>
+        <v>82.5122050417085</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>79.01144734668084</v>
+        <v>79.01144734667946</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>78.69380219565373</v>
+        <v>78.69380219565329</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>78.16488515627795</v>
+        <v>78.16488515627016</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>68.39637236642177</v>
+        <v>68.39637236642375</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>67.60148951886106</v>
+        <v>67.60148951886033</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>67.3168645196362</v>
+        <v>67.31686451963614</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>67.24207236659423</v>
+        <v>67.24207236659356</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>66.53379525928563</v>
+        <v>66.53379525928661</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>64.26004131244038</v>
+        <v>64.26004131243936</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>61.5304340336784</v>
+        <v>61.53043403367726</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>61.23270118207428</v>
+        <v>61.2327011820744</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>53.2859325687422</v>
+        <v>53.28593256874252</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>47.18333002730634</v>
+        <v>47.18333002730628</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2469,7 +2469,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>46.1293611054751</v>
+        <v>46.12936110547506</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>45.86612977148228</v>
+        <v>45.86612977147965</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>45.45910177174046</v>
+        <v>45.45910177174055</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>41.88266103285726</v>
+        <v>41.88266103285828</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>39.99016265494807</v>
+        <v>39.99016265495103</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>39.56200500388884</v>
+        <v>39.56200500388904</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>39.44561284168957</v>
+        <v>39.44561284168963</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>39.07471890501572</v>
+        <v>39.07471890501741</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>38.37285196434453</v>
+        <v>38.37285196434448</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>37.74826268447823</v>
+        <v>37.74826268447873</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>36.73514938431779</v>
+        <v>36.7351493843178</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>36.64085422837221</v>
+        <v>36.64085422837223</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>36.60927084117553</v>
+        <v>36.60927084117551</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>36.40076083525079</v>
+        <v>36.40076083524971</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>36.35303888595674</v>
+        <v>36.35303888595629</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>35.86688072560644</v>
+        <v>35.86688072561144</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>34.77380135683012</v>
+        <v>34.77380135682778</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>34.54760597379811</v>
+        <v>34.54760597379794</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>33.23946872502025</v>
+        <v>33.23946872502004</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>33.14216718917874</v>
+        <v>33.14216718917879</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>32.36766359099706</v>
+        <v>32.3676635909971</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>28.98690436490499</v>
+        <v>28.98690436490501</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2865,7 +2865,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>28.2180096806788</v>
+        <v>28.21800968067878</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>28.2180096806788</v>
+        <v>28.21800968067878</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>27.41860784217928</v>
+        <v>27.41860784217929</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>23.87415531401869</v>
+        <v>23.87415531401703</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>23.33673933596343</v>
+        <v>23.33673933596114</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>22.75050712195715</v>
+        <v>22.75050712195713</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>22.59358891025339</v>
+        <v>22.59358891025227</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>22.59358891025339</v>
+        <v>22.59358891025227</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>22.56614655277292</v>
+        <v>22.56614655277423</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>22.31465241345194</v>
+        <v>22.31465241345193</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>22.21103235232037</v>
+        <v>22.21103235231929</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>22.12445970586352</v>
+        <v>22.12445970586354</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>22.12445970586352</v>
+        <v>22.12445970586354</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>21.66095130779325</v>
+        <v>21.66095130779327</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>21.51161870603069</v>
+        <v>21.51161870603071</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>21.46923011385592</v>
+        <v>21.46923011385608</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>21.35517109655375</v>
+        <v>21.35517109655377</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>21.18939944259304</v>
+        <v>21.18939944259302</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>21.1306025736239</v>
+        <v>21.13060257362157</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>20.99953176205085</v>
+        <v>20.99953176205087</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>20.636781899937</v>
+        <v>20.63678189993698</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>20.41763832864003</v>
+        <v>20.41763832864005</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>20.24349915534423</v>
+        <v>20.24349915534421</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>20.0637891138018</v>
+        <v>20.06378911380178</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>19.90071009098967</v>
+        <v>19.90071009098969</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>19.85021881315472</v>
+        <v>19.85021881315469</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>19.76112863833591</v>
+        <v>19.76112863833589</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3701,7 +3701,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>19.72806332461145</v>
+        <v>19.72806332461147</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>19.52624201370107</v>
+        <v>19.52624201370108</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>19.42993295121255</v>
+        <v>19.42993295121257</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3789,7 +3789,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>19.42514213549529</v>
+        <v>19.4251421354953</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>19.34234345032651</v>
+        <v>19.3423434503265</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>19.29154082943042</v>
+        <v>19.29154082943044</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>19.25142606488698</v>
+        <v>19.25142606488699</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>19.2217569615056</v>
+        <v>19.22175696150559</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>19.08161535332729</v>
+        <v>19.0816153533273</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>19.0663758502943</v>
+        <v>19.06637585029472</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4086,7 +4086,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>19.05993177069799</v>
+        <v>19.05993177069797</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>19.04604717546093</v>
+        <v>19.04604717546186</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4196,7 +4196,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>18.99232143758415</v>
+        <v>18.99232143758412</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>18.76579008890949</v>
+        <v>18.76579008890951</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>18.32849639120081</v>
+        <v>18.32849639120079</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>18.23271993241755</v>
+        <v>18.23271993241772</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>17.60693495918884</v>
+        <v>17.60693495918886</v>
       </c>
       <c r="C267">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>17.38000327891919</v>
+        <v>17.3800032789192</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>17.15787506295454</v>
+        <v>17.15787506295591</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>16.81718583909869</v>
+        <v>16.81718583909729</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>16.71182361897607</v>
+        <v>16.71182361897653</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>16.6595615965297</v>
+        <v>16.65956159652972</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>16.25423464647395</v>
+        <v>16.25423464647394</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>15.27493133193341</v>
+        <v>15.27493133193333</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>15.08337186519239</v>
+        <v>15.08337186519237</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>14.78273995761251</v>
+        <v>14.78273995761249</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>14.14703338859505</v>
+        <v>14.14703338859506</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4515,7 +4515,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>14.13671489207369</v>
+        <v>14.13671489207368</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>14.11842677036174</v>
+        <v>14.11842677035986</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>13.99174875747217</v>
+        <v>13.99174875747218</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>13.9319052252689</v>
+        <v>13.93190522526888</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -4570,7 +4570,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>13.76473588638353</v>
+        <v>13.76473588638352</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>13.70449464046805</v>
+        <v>13.70449464046804</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>13.61832386905679</v>
+        <v>13.6183238690568</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4647,7 +4647,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>13.61711893328881</v>
+        <v>13.6171189332888</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>13.39013324122809</v>
+        <v>13.39013324122808</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4691,7 +4691,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>12.76068145986799</v>
+        <v>12.76068145986657</v>
       </c>
       <c r="C300">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>12.66532678277168</v>
+        <v>12.66532678277177</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>12.52913181821563</v>
+        <v>12.52913181821562</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4735,7 +4735,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>12.31799535255765</v>
+        <v>12.31799535255764</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -4746,7 +4746,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>12.12778744464657</v>
+        <v>12.12778744464658</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>11.8190377636316</v>
+        <v>11.81903776363186</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>11.58854131986673</v>
+        <v>11.58854131986674</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>11.23408881161371</v>
+        <v>11.23408881161373</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -4823,7 +4823,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>11.04508888771602</v>
+        <v>11.04508888771601</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>11.01639909834256</v>
+        <v>11.01639909834269</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>10.44333493113615</v>
+        <v>10.44333493113617</v>
       </c>
       <c r="C317">
         <v>1e-05</v>
@@ -4889,7 +4889,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>10.42738001795615</v>
+        <v>10.42738001795617</v>
       </c>
       <c r="C318">
         <v>1e-05</v>
@@ -4933,7 +4933,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>9.941729173153723</v>
+        <v>9.941729173150296</v>
       </c>
       <c r="C322">
         <v>1e-05</v>
@@ -4944,7 +4944,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>9.556712190040619</v>
+        <v>9.556712190039603</v>
       </c>
       <c r="C323">
         <v>2e-05</v>
@@ -4955,7 +4955,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>9.544464924505197</v>
+        <v>9.544464924505206</v>
       </c>
       <c r="C324">
         <v>2e-05</v>
@@ -4966,7 +4966,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>8.597724686947751</v>
+        <v>8.597724686949343</v>
       </c>
       <c r="C325">
         <v>5e-05</v>
@@ -4988,7 +4988,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>7.859561617954999</v>
+        <v>7.859561617954555</v>
       </c>
       <c r="C327">
         <v>0.00011</v>
@@ -4999,7 +4999,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>7.785672723611049</v>
+        <v>7.785672723610746</v>
       </c>
       <c r="C328">
         <v>0.00012</v>
@@ -5010,7 +5010,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>7.09589369235435</v>
+        <v>7.095893692354347</v>
       </c>
       <c r="C329">
         <v>0.00025</v>
@@ -5021,7 +5021,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>7.09589369235435</v>
+        <v>7.095893692354347</v>
       </c>
       <c r="C330">
         <v>0.00025</v>
@@ -5032,7 +5032,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>6.364159756886147</v>
+        <v>6.364159756884465</v>
       </c>
       <c r="C331">
         <v>0.0005999999999999999</v>
@@ -5054,7 +5054,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>5.21709978847673</v>
+        <v>5.217099788476734</v>
       </c>
       <c r="C333">
         <v>0.00233</v>
@@ -5065,7 +5065,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>5.138818745644392</v>
+        <v>5.138818745644394</v>
       </c>
       <c r="C334">
         <v>0.00256</v>
@@ -5076,7 +5076,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>5.137789410321083</v>
+        <v>5.137789410321085</v>
       </c>
       <c r="C335">
         <v>0.00256</v>
@@ -5098,7 +5098,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>4.882094919614651</v>
+        <v>4.88209491960972</v>
       </c>
       <c r="C337">
         <v>0.00348</v>
@@ -5131,7 +5131,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>4.126700821677545</v>
+        <v>4.126700821677987</v>
       </c>
       <c r="C340">
         <v>0.00872</v>
